--- a/mbs-perturbation/mega/welm/smote/WELM_tanh_smote_results.xlsx
+++ b/mbs-perturbation/mega/welm/smote/WELM_tanh_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5564516129032258</v>
+        <v>0.6893491124260355</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6880907372400755</v>
+        <v>0.7244094488188976</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6386359036632261</v>
+        <v>0.810129915730337</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5026881720430108</v>
+        <v>0.6479289940828402</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9942857142857143</v>
+        <v>0.6436781609195402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6529080675422139</v>
+        <v>0.653061224489796</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5355765047135607</v>
+        <v>0.7725504625735913</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5725806451612904</v>
+        <v>0.5295857988165681</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8789473684210526</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6774847870182557</v>
+        <v>0.6761710794297353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6519953730480046</v>
+        <v>0.5843487394957982</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6846361185983828</v>
+        <v>0.6390532544378699</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6261980830670927</v>
+        <v>0.7067307692307693</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7007820222105937</v>
+        <v>0.8139440687517611</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5094339622641509</v>
+        <v>0.4467455621301775</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7616580310880829</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5856523257844792</v>
+        <v>0.549615752381627</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5651581021940122</v>
+        <v>0.5905325443786983</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8272631230438702</v>
+        <v>0.6873162182644942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6524657467382335</v>
+        <v>0.5520745043938395</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6225284258839728</v>
+        <v>0.7061177877866229</v>
       </c>
     </row>
   </sheetData>
